--- a/converted_data.xlsx
+++ b/converted_data.xlsx
@@ -444,34 +444,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1157</v>
+        <v>1016</v>
       </c>
       <c r="C2">
-        <v>1527.048</v>
+        <v>2440.2288</v>
       </c>
       <c r="D2">
-        <v>0.0296705972839036</v>
+        <v>0.02530727415391778</v>
       </c>
       <c r="E2">
-        <v>0.02416058116547581</v>
+        <v>0.005085549138902199</v>
       </c>
       <c r="F2">
-        <v>0.4113605022798386</v>
+        <v>0.4360344633223833</v>
       </c>
       <c r="G2">
-        <v>137.0740037057313</v>
+        <v>141.7688281721612</v>
       </c>
       <c r="H2">
-        <v>127.6602609413531</v>
+        <v>127.8595472405868</v>
       </c>
       <c r="I2">
-        <v>0.1005463086833333</v>
+        <v>0.09193561352616668</v>
       </c>
       <c r="J2">
-        <v>0.1024362768916667</v>
+        <v>0.09655595580613889</v>
       </c>
       <c r="K2">
-        <v>163.2932532</v>
+        <v>158.984125685</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -479,34 +479,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1297</v>
+        <v>1126</v>
       </c>
       <c r="C3">
-        <v>1530.096</v>
+        <v>2439.0096</v>
       </c>
       <c r="D3">
-        <v>0.0418879020478639</v>
+        <v>0.03839724354387525</v>
       </c>
       <c r="E3">
-        <v>0.03538994113718994</v>
+        <v>0.02120797972593285</v>
       </c>
       <c r="F3">
-        <v>0.3654237568167088</v>
+        <v>0.3807063459697238</v>
       </c>
       <c r="G3">
-        <v>121.7608648740369</v>
+        <v>123.7060826511455</v>
       </c>
       <c r="H3">
-        <v>113.383175065802</v>
+        <v>111.6440776118497</v>
       </c>
       <c r="I3">
-        <v>0.0847965736138889</v>
+        <v>0.07381207838705557</v>
       </c>
       <c r="J3">
-        <v>0.0859305545388889</v>
+        <v>0.08063864355555557</v>
       </c>
       <c r="K3">
-        <v>186.88005644</v>
+        <v>174.17947008</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -514,34 +514,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1426</v>
+        <v>1217</v>
       </c>
       <c r="C4">
-        <v>1530.096</v>
+        <v>2440.8384</v>
       </c>
       <c r="D4">
-        <v>0.06283185307179587</v>
+        <v>0.05550147021341968</v>
       </c>
       <c r="E4">
-        <v>0.05439450498373771</v>
+        <v>0.04240767081515558</v>
       </c>
       <c r="F4">
-        <v>0.317678033410637</v>
+        <v>0.3374032525580897</v>
       </c>
       <c r="G4">
-        <v>105.8709482325654</v>
+        <v>109.5809739613833</v>
       </c>
       <c r="H4">
-        <v>98.56869840792734</v>
+        <v>98.93386966998304</v>
       </c>
       <c r="I4">
-        <v>0.07068481099166667</v>
+        <v>0.06201111689422223</v>
       </c>
       <c r="J4">
-        <v>0.07295277284166667</v>
+        <v>0.06742902575811112</v>
       </c>
       <c r="K4">
-        <v>202.75578939</v>
+        <v>185.9728717</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -549,34 +549,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1564</v>
+        <v>1399</v>
       </c>
       <c r="C5">
-        <v>1533.144</v>
+        <v>2438.4</v>
       </c>
       <c r="D5">
-        <v>0.0942477796076938</v>
+        <v>0.08726646259971647</v>
       </c>
       <c r="E5">
-        <v>0.07650730147073694</v>
+        <v>0.07958635481195726</v>
       </c>
       <c r="F5">
-        <v>0.2698979810742261</v>
+        <v>0.2817172993912497</v>
       </c>
       <c r="G5">
-        <v>89.93980026879203</v>
+        <v>91.54857299906752</v>
       </c>
       <c r="H5">
-        <v>83.7278933692191</v>
+        <v>82.61819529291505</v>
       </c>
       <c r="I5">
-        <v>0.05833701869722222</v>
+        <v>0.05035757292163889</v>
       </c>
       <c r="J5">
-        <v>0.06098297418888889</v>
+        <v>0.05539622816505556</v>
       </c>
       <c r="K5">
-        <v>216.81715286</v>
+        <v>203.9668810179</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -584,34 +584,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1787</v>
+        <v>1507</v>
       </c>
       <c r="C6">
-        <v>1530.096</v>
+        <v>2441.448</v>
       </c>
       <c r="D6">
-        <v>0.1518436449235067</v>
+        <v>0.148352986419518</v>
       </c>
       <c r="E6">
-        <v>0.1378665593297437</v>
+        <v>0.1273158432889427</v>
       </c>
       <c r="F6">
-        <v>0.2153329410108159</v>
+        <v>0.2242200079961073</v>
       </c>
       <c r="G6">
-        <v>71.79060495694056</v>
+        <v>72.85413537662579</v>
       </c>
       <c r="H6">
-        <v>66.81320547068215</v>
+        <v>65.74359983721138</v>
       </c>
       <c r="I6">
-        <v>0.05581706108611111</v>
+        <v>0.05027315434166667</v>
       </c>
       <c r="J6">
-        <v>0.05884101021944445</v>
+        <v>0.05480907804166667</v>
       </c>
       <c r="K6">
-        <v>241.31114084</v>
+        <v>211.82763679</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -619,34 +619,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1920</v>
+        <v>1612</v>
       </c>
       <c r="C7">
-        <v>1557.528</v>
+        <v>2453.64</v>
       </c>
       <c r="D7">
-        <v>0.1850049007113989</v>
+        <v>0.1815142422074103</v>
       </c>
       <c r="E7">
-        <v>0.1814788643038468</v>
+        <v>0.153874629882268</v>
       </c>
       <c r="F7">
-        <v>0.195815573779867</v>
+        <v>0.2034108161249618</v>
       </c>
       <c r="G7">
-        <v>65.24192116014612</v>
+        <v>66.12613060809115</v>
       </c>
       <c r="H7">
-        <v>60.65506702291805</v>
+        <v>59.59650828732148</v>
       </c>
       <c r="I7">
-        <v>0.05972299538333334</v>
+        <v>0.04926517129722222</v>
       </c>
       <c r="J7">
-        <v>0.06287294239722223</v>
+        <v>0.05380109499722223</v>
       </c>
       <c r="K7">
-        <v>258.5476509</v>
+        <v>215.229579565</v>
       </c>
     </row>
   </sheetData>
